--- a/Protocols/Pilot animal project/Final documents for Seahorse pilot/Seahorse plate layout.xlsx
+++ b/Protocols/Pilot animal project/Final documents for Seahorse pilot/Seahorse plate layout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\U1115575\Documents\lampro_cort_temp\Protocols\Pilot animal project\Final documents for Seahorse pilot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF49658-DDF1-47F7-8AE1-1F0D69320361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30564561-FC1E-4B0E-AA04-C2040119467E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="15" windowWidth="24075" windowHeight="15000" firstSheet="1" activeTab="1" xr2:uid="{3AA2676A-0E04-B84E-9C61-CF59A28EEDFF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="1" activeTab="1" xr2:uid="{3AA2676A-0E04-B84E-9C61-CF59A28EEDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -119,15 +119,6 @@
     <t>FCCP</t>
   </si>
   <si>
-    <t>0.125 uM</t>
-  </si>
-  <si>
-    <t>0.25 uM</t>
-  </si>
-  <si>
-    <t>run at expected tissue concentration (Dil. 1) and recommended Oligomycin dose 1.0 uM</t>
-  </si>
-  <si>
     <t>Tissue</t>
   </si>
   <si>
@@ -141,6 +132,18 @@
   </si>
   <si>
     <t xml:space="preserve">Port C: Rotenone/antimycin A - 25 ul </t>
+  </si>
+  <si>
+    <t>2.5 uM</t>
+  </si>
+  <si>
+    <t>run at expected tissue concentration (Dil. 1) and Oligomycin dose 2.5 uM</t>
+  </si>
+  <si>
+    <t>3.0 uM</t>
+  </si>
+  <si>
+    <t>FCCP run at 1.0 uM for tissue dilution and oligomycin concentration tests</t>
   </si>
 </sst>
 </file>
@@ -337,7 +340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -367,7 +370,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -414,9 +416,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>675005</xdr:colOff>
+      <xdr:colOff>678180</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>198755</xdr:rowOff>
+      <xdr:rowOff>201930</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -432,7 +434,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -855,11 +857,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{196642D7-E562-48AB-88B4-A2ECB96F2584}">
-  <dimension ref="A2:N18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.5" x14ac:dyDescent="0.45"/>
   <cols>
@@ -868,75 +868,79 @@
     <col min="14" max="14" width="7.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
       <c r="E2" s="28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F2" s="28"/>
       <c r="G2" s="28"/>
       <c r="H2" s="28" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I2" s="28"/>
       <c r="J2" s="28"/>
       <c r="K2" s="28" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="L2" s="28"/>
       <c r="M2" s="28"/>
       <c r="N2" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="B3" s="29">
+      <c r="B3" s="27">
         <v>1</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="27">
         <v>2</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="27">
         <v>3</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="27">
         <v>4</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="27">
         <v>5</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="27">
         <v>6</v>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="27">
         <v>7</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="27">
         <v>8</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3" s="27">
         <v>9</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <v>10</v>
       </c>
-      <c r="L3" s="29">
+      <c r="L3" s="27">
         <v>11</v>
       </c>
-      <c r="M3" s="29">
+      <c r="M3" s="27">
         <v>12</v>
       </c>
-      <c r="N3" s="25"/>
     </row>
     <row r="4" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="18" t="s">
@@ -955,15 +959,17 @@
       <c r="M4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="25" t="s">
+      <c r="N4" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="12"/>
@@ -974,14 +980,17 @@
       <c r="J5" s="15"/>
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="25"/>
+      <c r="M5" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="13"/>
@@ -992,16 +1001,20 @@
       <c r="J6" s="11"/>
       <c r="K6" s="23"/>
       <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="25" t="s">
+      <c r="M6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="13"/>
@@ -1012,14 +1025,17 @@
       <c r="J7" s="11"/>
       <c r="K7" s="23"/>
       <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="25"/>
+      <c r="M7" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="14"/>
@@ -1030,16 +1046,20 @@
       <c r="J8" s="16"/>
       <c r="K8" s="24"/>
       <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25" t="s">
+      <c r="M8" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="14"/>
@@ -1050,13 +1070,17 @@
       <c r="J9" s="16"/>
       <c r="K9" s="24"/>
       <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="19"/>
@@ -1067,10 +1091,12 @@
       <c r="J10" s="20"/>
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="M10" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="35" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="18" t="s">
@@ -1092,30 +1118,30 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B12" s="6" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="26" t="s">
         <v>26</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="28.5" x14ac:dyDescent="0.65">
@@ -1123,17 +1149,17 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B18" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
